--- a/paper/analyses/antibody_metrics.xlsx
+++ b/paper/analyses/antibody_metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Frankies\paper\analyses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Frankies/paper/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC86DB0E-7C7D-4343-8271-BDD1D4585DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A69C271-516F-594C-B076-40B32471355A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41325" yWindow="1635" windowWidth="28800" windowHeight="15435" xr2:uid="{5B3AFB41-9E26-4CB9-A9B5-D2D249281113}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{5B3AFB41-9E26-4CB9-A9B5-D2D249281113}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>antibody_id</t>
   </si>
@@ -134,7 +134,10 @@
     <t>messy-discriminator</t>
   </si>
   <si>
-    <t>humatch_</t>
+    <t>humatch_human_likeness_heavy_p</t>
+  </si>
+  <si>
+    <t>humatch_human_likeness_light_p</t>
   </si>
 </sst>
 </file>
@@ -506,20 +509,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECF478A-A192-4FAE-BE70-12B9A69A9EEF}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,245 +533,428 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>380.928</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>5.2709078E-5</v>
+      </c>
+      <c r="D2">
+        <v>0.99086755999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>327.96600000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.23463460999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.99999979999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>387.70800000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.61598796</v>
+      </c>
+      <c r="D4">
+        <v>6.6507445000000003E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>368.221</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.99302053000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.97079336999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>380.53</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3.3512722000000002E-5</v>
+      </c>
+      <c r="D6">
+        <v>0.99736389999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>363.952</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4.8125236000000004E-7</v>
+      </c>
+      <c r="D7">
+        <v>3.711752E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>365.57299999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.98367769999999999</v>
+      </c>
+      <c r="D8">
+        <v>5.3125915999999998E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>407.93200000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0.9988612</v>
+      </c>
+      <c r="D9">
+        <v>4.835215E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>334.47399999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.981846</v>
+      </c>
+      <c r="D10">
+        <v>0.23250976000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>338.17399999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.37360576000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.77319700000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>367.93599999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>3.8169461999999999E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.15165651999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>354.94099999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0.15068822000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.99999886999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>386.77</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1.2414405E-7</v>
+      </c>
+      <c r="D14">
+        <v>0.92783369999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
         <v>396.767</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0.99515664999999998</v>
+      </c>
+      <c r="D15">
+        <v>2.5676861E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
         <v>354.73200000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.99555283999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.99851780000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>354.09800000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>4.9807740000000003E-2</v>
+      </c>
+      <c r="D17">
+        <v>2.815849E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>354.00799999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0.99287859999999994</v>
+      </c>
+      <c r="D18">
+        <v>0.27461064000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <v>355.30599999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0.92644740000000003</v>
+      </c>
+      <c r="D19">
+        <v>0.82598669999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>374.74599999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.78409640000000003</v>
+      </c>
+      <c r="D20">
+        <v>0.99947386999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
         <v>366.89400000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1.0929846E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.9771649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
         <v>394.70400000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0.98372919999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.16401209999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>387.12599999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>8.5188310000000003E-2</v>
+      </c>
+      <c r="D23">
+        <v>7.3267652999999997E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
         <v>323.39600000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0.99424109999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.88820339999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>375.13200000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>7.9289760000000004E-7</v>
+      </c>
+      <c r="D25">
+        <v>0.97867084000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>408.983</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>9.5086544999999998E-3</v>
+      </c>
+      <c r="D26">
+        <v>1.3313049E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
         <v>360.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1.4731335E-2</v>
+      </c>
+      <c r="D27">
+        <v>4.8040720000000004E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
         <v>404.35899999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0.89132500000000003</v>
+      </c>
+      <c r="D28">
+        <v>0.9804216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
         <v>323.00900000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1.7240779000000001E-4</v>
+      </c>
+      <c r="D29">
+        <v>3.7128298E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
         <v>490.33499999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0.86926924999999999</v>
+      </c>
+      <c r="D30">
+        <v>7.6192570000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
         <v>347.69600000000003</v>
+      </c>
+      <c r="C31">
+        <v>0.14501840999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.99977285000000005</v>
       </c>
     </row>
   </sheetData>

--- a/paper/analyses/antibody_metrics.xlsx
+++ b/paper/analyses/antibody_metrics.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Frankies/paper/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Frankies\paper\analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A69C271-516F-594C-B076-40B32471355A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E82C95-344A-446C-8E61-FD3F32B8A62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{5B3AFB41-9E26-4CB9-A9B5-D2D249281113}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5B3AFB41-9E26-4CB9-A9B5-D2D249281113}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>antibody_id</t>
   </si>
@@ -138,6 +141,18 @@
   </si>
   <si>
     <t>humatch_human_likeness_light_p</t>
+  </si>
+  <si>
+    <t>foldx_solubility_solvation_polar</t>
+  </si>
+  <si>
+    <t>foldx_solubility_solvation_hydrophobic</t>
+  </si>
+  <si>
+    <t>mean_plddt</t>
+  </si>
+  <si>
+    <t>median_plddt</t>
   </si>
 </sst>
 </file>
@@ -509,21 +524,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECF478A-A192-4FAE-BE70-12B9A69A9EEF}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,430 +549,802 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>380.928</v>
+        <v>-121.09699999999999</v>
       </c>
       <c r="C2">
+        <v>-335.18200000000002</v>
+      </c>
+      <c r="D2">
+        <v>505.964</v>
+      </c>
+      <c r="E2">
         <v>5.2709078E-5</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>0.99086755999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>0.79015564202334598</v>
+      </c>
+      <c r="H2">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>327.96600000000001</v>
+        <v>-130.80799999999999</v>
       </c>
       <c r="C3">
+        <v>-341.40899999999999</v>
+      </c>
+      <c r="D3">
+        <v>371.53</v>
+      </c>
+      <c r="E3">
         <v>0.23463460999999999</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.99999979999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0.82914396887159503</v>
+      </c>
+      <c r="H3">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>387.70800000000003</v>
+        <v>-126.086</v>
       </c>
       <c r="C4">
+        <v>-348.89699999999999</v>
+      </c>
+      <c r="D4">
+        <v>800.04899999999998</v>
+      </c>
+      <c r="E4">
         <v>0.61598796</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>6.6507445000000003E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0.77381322957198395</v>
+      </c>
+      <c r="H4">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>368.221</v>
+        <v>-60.720100000000002</v>
       </c>
       <c r="C5">
+        <v>-330.09500000000003</v>
+      </c>
+      <c r="D5">
+        <v>618.58100000000002</v>
+      </c>
+      <c r="E5">
         <v>0.99302053000000001</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.97079336999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>0.68027237354085601</v>
+      </c>
+      <c r="H5">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>380.53</v>
+        <v>-131.375</v>
       </c>
       <c r="C6">
+        <v>-323.08100000000002</v>
+      </c>
+      <c r="D6">
+        <v>315.33199999999999</v>
+      </c>
+      <c r="E6">
         <v>3.3512722000000002E-5</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0.99736389999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>0.82299610894941599</v>
+      </c>
+      <c r="H6">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>363.952</v>
+        <v>-64.486099999999993</v>
       </c>
       <c r="C7">
+        <v>-346.38299999999998</v>
+      </c>
+      <c r="D7">
+        <v>695.62599999999998</v>
+      </c>
+      <c r="E7">
         <v>4.8125236000000004E-7</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>3.711752E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>0.73054474708171202</v>
+      </c>
+      <c r="H7">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>365.57299999999998</v>
+        <v>-125.286</v>
       </c>
       <c r="C8">
+        <v>-334.48500000000001</v>
+      </c>
+      <c r="D8">
+        <v>542.65700000000004</v>
+      </c>
+      <c r="E8">
         <v>0.98367769999999999</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>5.3125915999999998E-7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>0.78898832684824904</v>
+      </c>
+      <c r="H8">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>407.93200000000002</v>
+        <v>-111.129</v>
       </c>
       <c r="C9">
+        <v>-338.14499999999998</v>
+      </c>
+      <c r="D9">
+        <v>1024.73</v>
+      </c>
+      <c r="E9">
         <v>0.9988612</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>4.835215E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>0.75268482490272304</v>
+      </c>
+      <c r="H9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>334.47399999999999</v>
+        <v>-127.485</v>
       </c>
       <c r="C10">
+        <v>-333.32499999999999</v>
+      </c>
+      <c r="D10">
+        <v>519.18799999999999</v>
+      </c>
+      <c r="E10">
         <v>0.981846</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.23250976000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>0.82455252918287902</v>
+      </c>
+      <c r="H10">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>338.17399999999998</v>
+        <v>-144.84800000000001</v>
       </c>
       <c r="C11">
+        <v>-311.29199999999997</v>
+      </c>
+      <c r="D11">
+        <v>475.68700000000001</v>
+      </c>
+      <c r="E11">
         <v>0.37360576000000001</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.77319700000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>0.81073929961089497</v>
+      </c>
+      <c r="H11">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>367.93599999999998</v>
+        <v>-126.782</v>
       </c>
       <c r="C12">
+        <v>-295.06400000000002</v>
+      </c>
+      <c r="D12">
+        <v>308.86799999999999</v>
+      </c>
+      <c r="E12">
         <v>3.8169461999999999E-3</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>0.15165651999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>0.77680933852139999</v>
+      </c>
+      <c r="H12">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>354.94099999999997</v>
+        <v>-129.88399999999999</v>
       </c>
       <c r="C13">
+        <v>-325.89699999999999</v>
+      </c>
+      <c r="D13">
+        <v>517.79100000000005</v>
+      </c>
+      <c r="E13">
         <v>0.15068822000000001</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>0.99999886999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>0.82474708171206201</v>
+      </c>
+      <c r="H13">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>386.77</v>
+        <v>-132.852</v>
       </c>
       <c r="C14">
+        <v>-309.673</v>
+      </c>
+      <c r="D14">
+        <v>594.73299999999995</v>
+      </c>
+      <c r="E14">
         <v>1.2414405E-7</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>0.92783369999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>0.78287937743190605</v>
+      </c>
+      <c r="H14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>396.767</v>
+        <v>-130.815</v>
       </c>
       <c r="C15">
+        <v>-346.06799999999998</v>
+      </c>
+      <c r="D15">
+        <v>553.07000000000005</v>
+      </c>
+      <c r="E15">
         <v>0.99515664999999998</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2.5676861E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>0.79789883268482398</v>
+      </c>
+      <c r="H15">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>354.73200000000003</v>
+        <v>-139.655</v>
       </c>
       <c r="C16">
+        <v>-331.04399999999998</v>
+      </c>
+      <c r="D16">
+        <v>536.08199999999999</v>
+      </c>
+      <c r="E16">
         <v>0.99555283999999999</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>0.99851780000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>0.79307392996108905</v>
+      </c>
+      <c r="H16">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>354.09800000000001</v>
+        <v>-128.01400000000001</v>
       </c>
       <c r="C17">
+        <v>-342.06299999999999</v>
+      </c>
+      <c r="D17">
+        <v>502.93400000000003</v>
+      </c>
+      <c r="E17">
         <v>4.9807740000000003E-2</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2.815849E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>0.81260700389105001</v>
+      </c>
+      <c r="H17">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>354.00799999999998</v>
+        <v>-135.50299999999999</v>
       </c>
       <c r="C18">
+        <v>-344.41199999999998</v>
+      </c>
+      <c r="D18">
+        <v>598.12699999999995</v>
+      </c>
+      <c r="E18">
         <v>0.99287859999999994</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>0.27461064000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>0.80906614785992204</v>
+      </c>
+      <c r="H18">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>355.30599999999998</v>
+        <v>-124.929</v>
       </c>
       <c r="C19">
+        <v>-331.48599999999999</v>
+      </c>
+      <c r="D19">
+        <v>524.44399999999996</v>
+      </c>
+      <c r="E19">
         <v>0.92644740000000003</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>0.82598669999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>0.81494163424124499</v>
+      </c>
+      <c r="H19">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>374.74599999999998</v>
+        <v>-120.70099999999999</v>
       </c>
       <c r="C20">
+        <v>-329.79300000000001</v>
+      </c>
+      <c r="D20">
+        <v>515.07299999999998</v>
+      </c>
+      <c r="E20">
         <v>0.78409640000000003</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>0.99947386999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>0.78762645914396801</v>
+      </c>
+      <c r="H20">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>366.89400000000001</v>
+        <v>-121.599</v>
       </c>
       <c r="C21">
+        <v>-331.78699999999998</v>
+      </c>
+      <c r="D21">
+        <v>387.11500000000001</v>
+      </c>
+      <c r="E21">
         <v>1.0929846E-2</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>0.9771649</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>0.81093385214007696</v>
+      </c>
+      <c r="H21">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>394.70400000000001</v>
+        <v>-126.316</v>
       </c>
       <c r="C22">
+        <v>-342.14299999999997</v>
+      </c>
+      <c r="D22">
+        <v>643.99699999999996</v>
+      </c>
+      <c r="E22">
         <v>0.98372919999999997</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>0.16401209999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>0.78747081712062195</v>
+      </c>
+      <c r="H22">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>387.12599999999998</v>
+        <v>-135.86500000000001</v>
       </c>
       <c r="C23">
+        <v>-361.81900000000002</v>
+      </c>
+      <c r="D23">
+        <v>640.10400000000004</v>
+      </c>
+      <c r="E23">
         <v>8.5188310000000003E-2</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>7.3267652999999997E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>0.821167315175097</v>
+      </c>
+      <c r="H23">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>323.39600000000002</v>
+        <v>-123.429</v>
       </c>
       <c r="C24">
+        <v>-363.31</v>
+      </c>
+      <c r="D24">
+        <v>787.79100000000005</v>
+      </c>
+      <c r="E24">
         <v>0.99424109999999999</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>0.88820339999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>0.77809338521400695</v>
+      </c>
+      <c r="H24">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>375.13200000000001</v>
+        <v>-143.482</v>
       </c>
       <c r="C25">
+        <v>-328.75400000000002</v>
+      </c>
+      <c r="D25">
+        <v>697.77599999999995</v>
+      </c>
+      <c r="E25">
         <v>7.9289760000000004E-7</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>0.97867084000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>0.84521400778210098</v>
+      </c>
+      <c r="H25">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>408.983</v>
+        <v>-122.114</v>
       </c>
       <c r="C26">
+        <v>-340.43200000000002</v>
+      </c>
+      <c r="D26">
+        <v>549.50699999999995</v>
+      </c>
+      <c r="E26">
         <v>9.5086544999999998E-3</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>1.3313049E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>0.78035019455252896</v>
+      </c>
+      <c r="H26">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>360.4</v>
+        <v>-127.607</v>
       </c>
       <c r="C27">
+        <v>-322.79000000000002</v>
+      </c>
+      <c r="D27">
+        <v>335.62900000000002</v>
+      </c>
+      <c r="E27">
         <v>1.4731335E-2</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>4.8040720000000004E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>0.80848249027237296</v>
+      </c>
+      <c r="H27">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>404.35899999999998</v>
+        <v>-126.43600000000001</v>
       </c>
       <c r="C28">
+        <v>-324.87700000000001</v>
+      </c>
+      <c r="D28">
+        <v>416.88799999999998</v>
+      </c>
+      <c r="E28">
         <v>0.89132500000000003</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>0.9804216</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>0.81813229571984403</v>
+      </c>
+      <c r="H28">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>323.00900000000001</v>
+        <v>-122.42400000000001</v>
       </c>
       <c r="C29">
+        <v>-337.42200000000003</v>
+      </c>
+      <c r="D29">
+        <v>606.53399999999999</v>
+      </c>
+      <c r="E29">
         <v>1.7240779000000001E-4</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>3.7128298E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>0.78700389105058299</v>
+      </c>
+      <c r="H29">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>490.33499999999998</v>
+        <v>-61.839399999999998</v>
       </c>
       <c r="C30">
+        <v>-362.97899999999998</v>
+      </c>
+      <c r="D30">
+        <v>1862.23</v>
+      </c>
+      <c r="E30">
         <v>0.86926924999999999</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>7.6192570000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>0.55673151750972705</v>
+      </c>
+      <c r="H30">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>347.69600000000003</v>
+        <v>-134.90100000000001</v>
       </c>
       <c r="C31">
+        <v>-323.89600000000002</v>
+      </c>
+      <c r="D31">
+        <v>344.06</v>
+      </c>
+      <c r="E31">
         <v>0.14501840999999999</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>0.99977285000000005</v>
+      </c>
+      <c r="G31">
+        <v>0.81809338521400699</v>
+      </c>
+      <c r="H31">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
